--- a/윤창민/Token/240726_0_폐기_TopicList.xlsx
+++ b/윤창민/Token/240726_0_폐기_TopicList.xlsx
@@ -14,139 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
-  <si>
-    <t>1) Topic Subject : "Disuse"
-2) Publisher Node : "Dispatcher"
-3) Subscriber Node : "DisuseEQP"
-4) 메세지 송수신방식 : async
-5) 송신메세지
-{
-  "Subject" : "ReqStatusOfDisuseEQPAsAsync",
-  "EqpGroupID" : 1,              // FmNode 추정가능. 생략가능
-  "EqpSeqNo" : 1                // 정의하지 않으면 1로 추정함. 생략가능
- }
-6) Function : 
-7) Return Message 길이 : 1K 이내
-8) 관련 Stored Procedure : 
-9) 응답메세지
-{
-  "status_code" : 200,
-  "EqpStatus" : 1,                 // 1 - Run, 2 - Wait, 4 - Trouble
-  "error_msg" : "None"
-}</t>
-  </si>
-  <si>
-    <t>1) Topic Subject : "Disuse" 
-2) Publisher Node : "Dispatcher"
-3) Subscriber Node : "DisuseEQP"
-4) 메세지 송수신방식 : async
-5) 송신메세지
-{
-  "Subject" : "RspBOTLoadReqOfDisuseEQPAsAsync",
-  "EqpGroupID" : 1,              // FmNode 추정가능. 생략가능
-  "EqpSeqNo" : 1,                // 정의하지 않으면 1로 추정함. 생략가능
-  "BottleInfo" :                   
-   {
-     "Barcode" : "" 
-    }
-}
-6) Function :
-7) Return Message 길이 : 1K 이내
-8) 관련 Stored Procedure :
-9) 응답메세지
-{
-  "status_code" : 200,
-  "error_msg" : "None"
-}</t>
-  </si>
-  <si>
-    <t>1) Topic Subject : "Disuse" 
-2) Publisher Node : "Dispatcher"
-3) Subscriber Node : "DisuseEQP"
-4) 메세지 송수신방식 : async
-5) 송신메세지
-{
-  "Subject" : "RspBOTUnloadReqOfDisuseEQPAsAsync",
-  "EqpGroupID" : 1,              // FmNode 추정가능. 생략가능
-  "EqpSeqNo" : 1,                // 정의하지 않으면 1로 추정함. 생략가능
-  "BottleInfo" :                   
-   {
-     "Barcode" : "" 
-    }
-}
-6) Function :
-7) Return Message 길이 : 1K 이내
-8) 관련 Stored Procedure :
-9) 응답메세지
-{
-  "status_code" : 200,
-  "error_msg" : "None"
-}</t>
-  </si>
-  <si>
-    <t>1) Topic Subject : "Disuse" 
-2) Publisher Node : "DisuseEQP"
-3) Subscriber Node : "DB_Manager" Or "Dispatcher"
-4) 메세지 송수신방식 : async
-5) 송신메세지
-{
-  "Subject" : "RptBOTCleaningCompOfDisuseEQPAsAsync",
-  "EqpGroupID" : 1,              // FmNode 추정가능. 생략가능
-  "EqpSeqNo" : 1                // 정의하지 않으면 1로 추정함. 생략가능
-}
-6) Function :
-7) Return Message 길이 : 1K 이내
-8) 관련 Stored Procedure :
-9) 응답메세지
-{
-  "status_code" : 200,
-  "error_msg" : "None"
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Topic Subject : "Disuse"
-2) Publisher Node : "DisuseEQP"
-3) Subscriber Node : "DB_Manager" Or "Dispatcher" Or "UI_Manager"
-4) 메세지 송수신방식 : async
-5) 송신메세지
-{
-  "Subject" : "RspStatusOfDisuseEQPAsAsync",
-  "status_code" : 200,
-  "EqpGroupID" : 1,              // FmNode 추정가능. 생략가능
-  "EqpSeqNo" : 1,                // 정의하지 않으면 1로 추정함. 생략가능
-  "EqpStatus" : 1                 // 1 - Run, 2 - Wait, 4 - Trouble
-  "error_msg" : "None"
-}
-6) Function : 
-7) Return Message 길이 : 1K 이내
-8) 관련 Stored Procedure : </t>
-  </si>
-  <si>
-    <t>1) Topic Subject : "Disuse" 
-2) Publisher Node : "Dispatcher"
-3) Subscriber Node : "DisuseEQP"
-4) 메세지 송수신방식 : sync
-5) 송신메세지
-{
-  "Subject" : "ReqExportJobOfDisuseEQP",
-  "EqpGroupID" : 1,              // FmNode 추정가능. 생략가능
-  "EqpSeqNo" : 1,                // 정의하지 않으면 1로 추정함. 생략가능
-  "JobType" : 1                   // 1 - 폐기 투입, 2 - 폐기 배출
-  "BottleInfo" :                   
-   {
-     "Barcode" : "" 
-    }
-}
-6) Function : 
-7) Return Message 길이 : 1K 이내
-8) 관련 Stored Procedure : 
-9) 응답메세지
-{
-  "status_code" : 200,
-  "error_msg" : "None"
-}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>폐기 설비 상태 요청</t>
   </si>
@@ -154,72 +22,6 @@
     <t>JSON 메시지</t>
   </si>
   <si>
-    <t>1) Topic Subject : "Disuse" 
-2) Publisher Node : "DisuseEQP"
-3) Subscriber Node : "DB_Manager" Or "Dispatcher"
-4) 메세지 송수신방식 : async
-5) 송신메세지
-{
-  "Subject" : "ReqBOTLoadReqOfDisuseEQPAsAsync",
-  "EqpGroupID" : 1,              // FmNode 추정가능. 생략가능
-  "EqpSeqNo" : 1                 // 정의하지 않으면 1로 추정함. 생략가능
-}
-6) Function :
-7) Return Message 길이 : 1K 이내
-8) 관련 Stored Procedure :
-9) 응답메세지
-{
-  "status_code" : 200,
-  "error_msg" : "None"
-}</t>
-  </si>
-  <si>
-    <t>1) Topic Subject : "Disuse" 
-2) Publisher Node : "DisuseEQP"
-3) Subscriber Node : "DB_Manager" Or "Dispatcher"
-4) 메세지 송수신방식 : async
-5) 송신메세지
-{
-  "Subject" : "ReqBOTUnloadReqOfDisuseEQPAsAsync",
-  "EqpGroupID" : 1,              // FmNode 추정가능. 생략가능
-  "EqpSeqNo" : 1                // 정의하지 않으면 1로 추정함. 생략가능
-}
-6) Function :
-7) Return Message 길이 : 1K 이내
-8) 관련 Stored Procedure :
-9) 응답메세지
-{
-  "status_code" : 200,
-  "error_msg" : "None"
-}</t>
-  </si>
-  <si>
-    <t>1) Topic Subject : "Disuse" 
-2) Publisher Node : "DisuseEQP"
-3) Subscriber Node : "DB_Manager" Or "Dispatcher"
-4) 메세지 송수신방식 : async
-5) 송신메세지
-{
-  "Subject" : "RptEndBOTLoadCompOfDisuseEQPAsAsync",
-  "EqpGroupID" : 1,              // FmNode 추정가능. 생략가능
-  "EqpSeqNo" : 1                // 정의하지 않으면 1로 추정함. 생략가능
-}
-6) Function :
-7) Return Message 길이 : 1K 이내
-8) 관련 Stored Procedure :
-9) 응답메세지
-{
-  "status_code" : 200,
-  "error_msg" : "None"
-}</t>
-  </si>
-  <si>
-    <t>RptEndBOTUnloadCompOfDisuseEQPAsAsync</t>
-  </si>
-  <si>
-    <t>RptBOTCleaningCompOfDisuseEQPAsAsync</t>
-  </si>
-  <si>
     <t>LIMS</t>
   </si>
   <si>
@@ -230,54 +32,6 @@
   </si>
   <si>
     <t>Sync</t>
-  </si>
-  <si>
-    <t>1) Topic Subject : "Disuse" 
-2) Publisher Node : "DisuseEQP"
-3) Subscriber Node : "DB_Manager" Or "Dispatcher"
-4) 메세지 송수신방식 : async
-5) 송신메세지
-{
-  "Subject" : "RptBOTUnloadCompOfDisuseEQPAsAsync",
-  "EqpGroupID" : 1,              // FmNode 추정가능. 생략가능
-  "EqpSeqNo" : 1,                // 정의하지 않으면 1로 추정함. 생략가능
-  "BottleInfo" :                   
-   {
-     "Barcode" : "" 
-    }
-}
-6) Function :
-7) Return Message 길이 : 1K 이내
-8) 관련 Stored Procedure :
-9) 응답메세지
-{
-  "status_code" : 200,
-  "error_msg" : "None"
-}</t>
-  </si>
-  <si>
-    <t>1) Topic Subject : "Disuse" 
-2) Publisher Node : "DisuseEQP"
-3) Subscriber Node : "DB_Manager" Or "Dispatcher"
-4) 메세지 송수신방식 : async
-5) 송신메세지
-{
-  "Subject" : "RptEndBOTUnloadCompOfDisuseEQPAsAsync",
-  "EqpGroupID" : 1,              // FmNode 추정가능. 생략가능
-  "EqpSeqNo" : 1,                // 정의하지 않으면 1로 추정함. 생략가능
-  "BottleInfo" :                   
-   {
-     "Barcode" : "" 
-    }
-}
-6) Function :
-7) Return Message 길이 : 1K 이내
-8) 관련 Stored Procedure :
-9) 응답메세지
-{
-  "status_code" : 200,
-  "error_msg" : "None"
-}</t>
   </si>
   <si>
     <t>1) Topic Subject : "Disuse"
@@ -310,45 +64,12 @@
     <t>LIMS에서 세정 완료 Bottle 안착 완료 송신</t>
   </si>
   <si>
-    <t>RptEndBOTLoadCompOfDisuseEQPAsAsync</t>
-  </si>
-  <si>
-    <t>RptBOTUnloadCompOfDisuseEQPAsAsync</t>
-  </si>
-  <si>
     <t>ReqBOTUnloadReqOfDisuseEQPAsAsync</t>
   </si>
   <si>
     <t>RspBOTUnloadReqOfDisuseEQPAsAsync</t>
   </si>
   <si>
-    <t>RptBOTLoadCompOfDisuseEQPAsAsync</t>
-  </si>
-  <si>
-    <t>1) Topic Subject : "Disuse" 
-2) Publisher Node : "DisuseEQP"
-3) Subscriber Node : "DB_Manager" Or "Dispatcher"
-4) 메세지 송수신방식 : async
-5) 송신메세지
-{
-  "Subject" : "RptBOTLoadCompOfDisuseEQPAsAsync",
-  "EqpGroupID" : 1,              // FmNode 추정가능. 생략가능
-  "EqpSeqNo" : 1,                // 정의하지 않으면 1로 추정함. 생략가능
-  "BottleInfo" :                   
-   {
-     "Barcode" : "" 
-    }
-}
-6) Function :
-7) Return Message 길이 : 1K 이내
-8) 관련 Stored Procedure :
-9) 응답메세지
-{
-  "status_code" : 200,
-  "error_msg" : "None"
-}</t>
-  </si>
-  <si>
     <t>To</t>
   </si>
   <si>
@@ -361,9 +82,6 @@
     <t>EQP</t>
   </si>
   <si>
-    <t>폐기 설비 상태 요청(Async)</t>
-  </si>
-  <si>
     <t>LIMS에 이송 작업 완료 보고</t>
   </si>
   <si>
@@ -377,12 +95,6 @@
   </si>
   <si>
     <t>LIMS에 세정 완료 Bottle 배출 완료 보고</t>
-  </si>
-  <si>
-    <t>ReqStatusOfDisuseEQPAsAsync</t>
-  </si>
-  <si>
-    <t>RspStatusOfDisuseEQPAsAsync</t>
   </si>
   <si>
     <t>ReqStatusOfDisuseEQP</t>
@@ -476,6 +188,271 @@
       </rPr>
       <t>LIMS에 보고(단위 동작 - Job 종료 아님)</t>
     </r>
+  </si>
+  <si>
+    <t>RspStatusOfDisuseEQPAsAsync</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) Topic Subject : "Disuse" 
+2) Publisher Node : "Dispatcher"
+3) Subscriber Node : "DisuseEQP"
+4) 메세지 송수신방식 : async
+5) 송신메세지
+{
+  "Subject" : "RspBOTLoadReqOfDisuseEQPAsAsync",
+  "EqpGroupID" : 1,
+  "EqpSeqNo" : 1,
+  "BottleInfo" :                   
+   {
+     "Barcode" : "", 
+     "Package" : 1
+    }
+}
+6) Function :
+7) Return Message 길이 : 1K 이내
+8) 관련 Stored Procedure :</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sync</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RptBOTLoadCompOfDisuseEQP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Topic Subject : "Disuse"
+2) Publisher Node : "DisuseEQP"
+3) Subscriber Node : "DB_Manager" Or "Dispatcher" Or "UI_Manager"
+4) 메세지 송수신방식 : async
+5) 송신메세지
+{
+  "Subject" : "RspStatusOfDisuseEQPAsAsync",
+  "status_code" : 200,
+  "EqpGroupID" : 1,
+  "EqpSeqNo" : 1,
+  "EqpStatus" : 1                 // 1 - Run, 2 - Wait, 4 - Trouble
+  "error_msg" : "None"
+}
+6) Function : 
+7) Return Message 길이 : 1K 이내
+8) 관련 Stored Procedure : </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) Topic Subject : "Disuse" 
+2) Publisher Node : "DisuseEQP"
+3) Subscriber Node : "DB_Manager" Or "Dispatcher"
+4) 메세지 송수신방식 : async
+5) 송신메세지
+{
+  "Subject" : "ReqBOTLoadReqOfDisuseEQPAsAsync",
+  "EqpGroupID" : 1,
+  "EqpSeqNo" : 1
+}
+6) Function :
+7) Return Message 길이 : 1K 이내
+8) 관련 Stored Procedure :</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RptEndBOTLoadCompOfDisuseEQP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) Topic Subject : "Disuse" 
+2) Publisher Node : "DisuseEQP"
+3) Subscriber Node : "DB_Manager" Or "Dispatcher"
+4) 메세지 송수신방식 : sync
+5) 송신메세지
+{
+  "Subject" : "RptEndBOTLoadCompOfDisuseEQP",
+  "EqpGroupID" : 1,
+  "EqpSeqNo" : 1
+}
+6) Function :
+7) Return Message 길이 : 1K 이내
+8) 관련 Stored Procedure :
+9) 응답메세지
+{
+  "status_code" : 200,
+  "error_msg" : "None"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RptBOTCleaningCompOfDisuseEQP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) Topic Subject : "Disuse" 
+2) Publisher Node : "DisuseEQP"
+3) Subscriber Node : "DB_Manager" Or "Dispatcher"
+4) 메세지 송수신방식 : sync
+5) 송신메세지
+{
+  "Subject" : "RptBOTCleaningCompOfDisuseEQP",
+  "EqpGroupID" : 1,
+  "EqpSeqNo" : 1
+}
+6) Function :
+7) Return Message 길이 : 1K 이내
+8) 관련 Stored Procedure :
+9) 응답메세지
+{
+  "status_code" : 200,
+  "error_msg" : "None"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) Topic Subject : "Disuse" 
+2) Publisher Node : "DisuseEQP"
+3) Subscriber Node : "DB_Manager" Or "Dispatcher"
+4) 메세지 송수신방식 : async
+5) 송신메세지
+{
+  "Subject" : "ReqBOTUnloadReqOfDisuseEQPAsAsync",
+  "EqpGroupID" : 1,
+  "EqpSeqNo" : 1
+}
+6) Function :
+7) Return Message 길이 : 1K 이내
+8) 관련 Stored Procedure :</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RptBOTUnloadCompOfDisuseEQP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RptEndBOTUnloadCompOfDisuseEQP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) Topic Subject : "Disuse" 
+2) Publisher Node : "DisuseEQP"
+3) Subscriber Node : "DB_Manager" Or "Dispatcher"
+4) 메세지 송수신방식 : sync
+5) 송신메세지
+{
+  "Subject" : "RptEndBOTUnloadCompOfDisuseEQP",
+  "EqpGroupID" : 1,
+  "EqpSeqNo" : 1
+}
+6) Function :
+7) Return Message 길이 : 1K 이내
+8) 관련 Stored Procedure :
+9) 응답메세지
+{
+  "status_code" : 200,
+  "error_msg" : "None"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) Topic Subject : "Disuse" 
+2) Publisher Node : "Dispatcher"
+3) Subscriber Node : "DisuseEQP"
+4) 메세지 송수신방식 : sync
+5) 송신메세지
+{
+  "Subject" : "ReqExportJobOfDisuseEQP",
+  "EqpGroupID" : 1,
+  "EqpSeqNo" : 1,
+  "JobType" : 1,                 // 1 - 폐기 투입, 2 - 폐기 세정, 3 - 폐기 배출
+  "BottleInfo" :                   
+   [
+     {
+       "Barcode" : "",         // Bottle의 바코드정보 공병의 경우 생략 가능
+       "Package" : 1          // Bottle의 Package정보 단일처리단위 묶음이다
+     },...........
+   ]
+}
+6) Function : 
+7) Return Message 길이 : 1K 이내
+8) 관련 Stored Procedure : 
+9) 응답메세지
+{
+  "status_code" : 200,
+  "error_msg" : "None"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) Topic Subject : "Disuse" 
+2) Publisher Node : "DisuseEQP"
+3) Subscriber Node : "DB_Manager" Or "Dispatcher"
+4) 메세지 송수신방식 : sync
+5) 송신메세지
+{
+  "Subject" : "RptBOTLoadCompOfDisuseEQP",
+  "EqpGroupID" : 1,
+  "EqpSeqNo" : 1,
+  "BottleInfo" :                   
+   {
+     "Barcode" : "" ,
+     "Package" : 1
+    }
+}
+6) Function :
+7) Return Message 길이 : 1K 이내
+8) 관련 Stored Procedure :
+9) 응답메세지
+{
+  "status_code" : 200,
+  "error_msg" : "None"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) Topic Subject : "Disuse" 
+2) Publisher Node : "Dispatcher"
+3) Subscriber Node : "DisuseEQP"
+4) 메세지 송수신방식 : async
+5) 송신메세지
+{
+  "Subject" : "RspBOTUnloadReqOfDisuseEQPAsAsync",
+  "EqpGroupID" : 1,
+  "EqpSeqNo" : 1,
+  "BottleInfo" :                   
+   {
+     "Barcode" : "",
+     "Package" : 1
+    }
+}
+6) Function :
+7) Return Message 길이 : 1K 이내
+8) 관련 Stored Procedure :</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) Topic Subject : "Disuse" 
+2) Publisher Node : "DisuseEQP"
+3) Subscriber Node : "DB_Manager" Or "Dispatcher"
+4) 메세지 송수신방식 : sync
+5) 송신메세지
+{
+  "Subject" : "RptBOTUnloadCompOfDisuseEQP",
+  "EqpGroupID" : 1,
+  "EqpSeqNo" : 1,
+  "BottleInfo" :                   
+   {
+     "Barcode" : "",
+     "Package" : 1
+    }
+}
+6) Function :
+7) Return Message 길이 : 1K 이내
+8) 관련 Stored Procedure :
+9) 응답메세지
+{
+  "status_code" : 200,
+  "error_msg" : "None"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -919,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -939,312 +916,290 @@
     <row r="1" spans="1:8" ht="17.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="199.5">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="199.5">
+    <row r="3" spans="1:8" ht="168">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="168">
+    <row r="4" spans="1:8" ht="273">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="241.5">
+    <row r="5" spans="1:8" ht="136.5">
       <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>42</v>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="189">
       <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="231">
+    <row r="7" spans="1:8" ht="241.5">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="231">
+    <row r="8" spans="1:8" ht="189">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="189">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="189">
+    <row r="10" spans="1:8" ht="136.5">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="189">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="231">
+    <row r="12" spans="1:8" ht="241.5">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="231">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>49</v>
+    <row r="13" spans="1:8" ht="189">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="231">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="H13" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
